--- a/ig/maj/kereval/0302/StructureDefinition-ror-available-time-type-of-time.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-available-time-type-of-time.xlsx
@@ -243,21 +243,21 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
     <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -1088,10 +1088,10 @@
         <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>74</v>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1116,7 +1116,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1191,7 +1191,7 @@
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1294,7 +1294,7 @@
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
@@ -1319,10 +1319,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
@@ -1396,10 +1396,10 @@
         <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
@@ -1424,10 +1424,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1502,7 +1502,7 @@
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
@@ -1530,7 +1530,7 @@
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -1605,7 +1605,7 @@
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
@@ -1633,7 +1633,7 @@
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>74</v>
@@ -1710,7 +1710,7 @@
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>74</v>
@@ -1738,7 +1738,7 @@
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>74</v>
@@ -1815,7 +1815,7 @@
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>74</v>
@@ -1843,7 +1843,7 @@
         <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>74</v>
@@ -1918,7 +1918,7 @@
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>74</v>
@@ -1946,7 +1946,7 @@
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -2023,7 +2023,7 @@
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>74</v>
@@ -2051,7 +2051,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2130,7 +2130,7 @@
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>74</v>
@@ -2158,7 +2158,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2235,7 +2235,7 @@
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
@@ -2263,7 +2263,7 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -2340,7 +2340,7 @@
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>74</v>
@@ -2368,7 +2368,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -2445,7 +2445,7 @@
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
@@ -2473,7 +2473,7 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2552,7 +2552,7 @@
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
@@ -2580,7 +2580,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -2659,7 +2659,7 @@
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>

--- a/ig/maj/kereval/0302/StructureDefinition-ror-available-time-type-of-time.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-available-time-type-of-time.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30</t>
+    <t>2023-02-14T16:40:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/maj/kereval/0302/StructureDefinition-ror-available-time-type-of-time.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-available-time-type-of-time.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T16:40:13+00:00</t>
+    <t>2023-02-15T16:52:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/maj/kereval/0302/StructureDefinition-ror-available-time-type-of-time.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-available-time-type-of-time.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T16:52:51+00:00</t>
+    <t>2023-02-16T17:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/maj/kereval/0302/StructureDefinition-ror-available-time-type-of-time.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-available-time-type-of-time.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T17:40:35+00:00</t>
+    <t>2023-02-17T08:35:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
